--- a/data/C_T/tickets_24_sla.xlsx
+++ b/data/C_T/tickets_24_sla.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\BusinessCase\TP-Case\data\C_T\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB4F23-BF2C-4F0C-A91F-A8A0F4665486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,11 +37,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +105,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +436,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43313</v>
       </c>
@@ -421,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43314</v>
       </c>
@@ -432,10 +485,10 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>27.08333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>27.083333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43315</v>
       </c>
@@ -449,7 +502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43316</v>
       </c>
@@ -463,7 +516,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43318</v>
       </c>
@@ -474,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4.25531914893617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4.2553191489361701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43319</v>
       </c>
@@ -488,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>28.57142857142857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43320</v>
       </c>
@@ -502,10 +555,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>24.39024390243902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24.390243902439021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43321</v>
       </c>
@@ -516,10 +569,10 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>13.04347826086956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>13.043478260869559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43322</v>
       </c>
@@ -530,10 +583,10 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>7.894736842105263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7.8947368421052628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43323</v>
       </c>
@@ -544,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>4.545454545454546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43325</v>
       </c>
@@ -558,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>5.263157894736842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43326</v>
       </c>
@@ -572,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>7.84313725490196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>7.8431372549019596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43327</v>
       </c>
@@ -586,10 +639,10 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>9.900990099009901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>9.9009900990099009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43328</v>
       </c>
@@ -600,10 +653,10 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>18.51851851851852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43329</v>
       </c>
@@ -617,7 +670,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43330</v>
       </c>
@@ -628,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>8.163265306122449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>8.1632653061224492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43332</v>
       </c>
@@ -645,7 +698,7 @@
         <v>19.35483870967742</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43333</v>
       </c>
@@ -656,10 +709,10 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>16.21621621621622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>16.216216216216221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43334</v>
       </c>
@@ -670,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>8.988764044943821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>8.9887640449438209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43335</v>
       </c>
@@ -684,10 +737,10 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>20.98765432098765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>20.987654320987652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43336</v>
       </c>
@@ -698,10 +751,10 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>21.33333333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>21.333333333333339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43337</v>
       </c>
@@ -712,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>11.42857142857143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>11.428571428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43339</v>
       </c>
@@ -729,7 +782,7 @@
         <v>21.95121951219512</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43340</v>
       </c>
@@ -740,10 +793,10 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>21.42857142857143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>21.428571428571431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43341</v>
       </c>
@@ -754,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="D26">
-        <v>26.31578947368421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43342</v>
       </c>
@@ -768,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>22.22222222222222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43343</v>
       </c>
@@ -782,10 +835,10 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>21.11111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>21.111111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43344</v>
       </c>
@@ -796,10 +849,10 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>13.72549019607843</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>13.725490196078431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43346</v>
       </c>
@@ -810,10 +863,10 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>33.9622641509434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>33.962264150943398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43347</v>
       </c>
@@ -827,7 +880,7 @@
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43348</v>
       </c>
@@ -838,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="D32">
-        <v>30.98591549295774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>30.985915492957741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43349</v>
       </c>
@@ -852,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="D33">
-        <v>26.59574468085106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>26.595744680851059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43350</v>
       </c>
@@ -866,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>30.43478260869566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>30.434782608695659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43351</v>
       </c>
@@ -880,10 +933,10 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>17.74193548387097</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>17.741935483870972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43353</v>
       </c>
@@ -894,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>11.94029850746269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>11.940298507462691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43354</v>
       </c>
@@ -911,7 +964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43355</v>
       </c>
@@ -922,10 +975,10 @@
         <v>32</v>
       </c>
       <c r="D38">
-        <v>43.24324324324324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>43.243243243243242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43356</v>
       </c>
@@ -939,7 +992,7 @@
         <v>25.97402597402597</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43357</v>
       </c>
@@ -950,10 +1003,10 @@
         <v>26</v>
       </c>
       <c r="D40">
-        <v>37.14285714285715</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>37.142857142857153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43358</v>
       </c>
@@ -967,7 +1020,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43360</v>
       </c>
@@ -978,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="D42">
-        <v>26.82926829268293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>26.829268292682929</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43361</v>
       </c>
@@ -995,7 +1048,7 @@
         <v>15.32258064516129</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43362</v>
       </c>
@@ -1006,10 +1059,10 @@
         <v>16</v>
       </c>
       <c r="D44">
-        <v>13.91304347826087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>13.913043478260869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43363</v>
       </c>
@@ -1020,10 +1073,10 @@
         <v>17</v>
       </c>
       <c r="D45">
-        <v>9.941520467836257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>9.9415204678362574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43364</v>
       </c>
@@ -1037,7 +1090,7 @@
         <v>7.18954248366013</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43365</v>
       </c>
@@ -1048,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>4.166666666666666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43367</v>
       </c>
@@ -1062,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <v>12.34567901234568</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>12.345679012345681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43368</v>
       </c>
@@ -1076,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="D49">
-        <v>11.70212765957447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>11.702127659574471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43369</v>
       </c>
@@ -1093,7 +1146,7 @@
         <v>11.29032258064516</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43370</v>
       </c>
@@ -1104,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="D51">
-        <v>11.96581196581197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>11.965811965811969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43371</v>
       </c>
@@ -1121,7 +1174,7 @@
         <v>14.81481481481481</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43372</v>
       </c>
@@ -1132,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>2.469135802469136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>2.4691358024691361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43374</v>
       </c>
@@ -1149,7 +1202,7 @@
         <v>15.27777777777778</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43375</v>
       </c>
@@ -1160,10 +1213,10 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>6.976744186046512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>6.9767441860465116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43377</v>
       </c>
@@ -1174,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="D56">
-        <v>12.84403669724771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>12.844036697247709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43378</v>
       </c>
@@ -1188,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>5.426356589147287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>5.4263565891472867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43379</v>
       </c>
@@ -1202,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>4.511278195488721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>4.5112781954887211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43381</v>
       </c>
@@ -1216,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="D59">
-        <v>19.75308641975309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>19.753086419753089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43382</v>
       </c>
@@ -1230,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>9.302325581395349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>9.3023255813953494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43383</v>
       </c>
@@ -1247,7 +1300,7 @@
         <v>13.23529411764706</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43384</v>
       </c>
@@ -1258,10 +1311,10 @@
         <v>8</v>
       </c>
       <c r="D62">
-        <v>7.61904761904762</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>7.6190476190476204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43385</v>
       </c>
@@ -1272,10 +1325,10 @@
         <v>15</v>
       </c>
       <c r="D63">
-        <v>12.29508196721311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>12.295081967213109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43386</v>
       </c>
@@ -1286,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>3.409090909090909</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>3.4090909090909092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43388</v>
       </c>
@@ -1303,7 +1356,7 @@
         <v>15.90909090909091</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43389</v>
       </c>
@@ -1317,7 +1370,7 @@
         <v>10.57692307692308</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43390</v>
       </c>
@@ -1331,7 +1384,7 @@
         <v>17.39130434782609</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43391</v>
       </c>
@@ -1345,7 +1398,7 @@
         <v>12.09677419354839</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43392</v>
       </c>
@@ -1359,7 +1412,7 @@
         <v>14.17910447761194</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43393</v>
       </c>
@@ -1370,10 +1423,10 @@
         <v>9</v>
       </c>
       <c r="D70">
-        <v>8.256880733944955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>8.2568807339449553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43395</v>
       </c>
@@ -1387,7 +1440,7 @@
         <v>8.791208791208792</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43396</v>
       </c>
@@ -1398,10 +1451,10 @@
         <v>22</v>
       </c>
       <c r="D72">
-        <v>17.32283464566929</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>17.322834645669289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43397</v>
       </c>
@@ -1415,7 +1468,7 @@
         <v>17.1875</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43398</v>
       </c>
@@ -1426,10 +1479,10 @@
         <v>32</v>
       </c>
       <c r="D74">
-        <v>20.91503267973856</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>20.915032679738559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43399</v>
       </c>
@@ -1443,7 +1496,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43400</v>
       </c>
@@ -1457,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43410</v>
       </c>
@@ -1468,10 +1521,10 @@
         <v>34</v>
       </c>
       <c r="D77">
-        <v>36.17021276595745</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>36.170212765957451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43411</v>
       </c>
@@ -1485,7 +1538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43412</v>
       </c>
@@ -1496,10 +1549,10 @@
         <v>58</v>
       </c>
       <c r="D79">
-        <v>38.41059602649007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>38.410596026490069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43413</v>
       </c>
@@ -1510,10 +1563,10 @@
         <v>80</v>
       </c>
       <c r="D80">
-        <v>58.3941605839416</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>58.394160583941598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43414</v>
       </c>
@@ -1524,10 +1577,10 @@
         <v>25</v>
       </c>
       <c r="D81">
-        <v>49.01960784313725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>49.019607843137251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43416</v>
       </c>
@@ -1541,7 +1594,7 @@
         <v>31.81818181818182</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43417</v>
       </c>
@@ -1552,10 +1605,10 @@
         <v>34</v>
       </c>
       <c r="D83">
-        <v>44.15584415584416</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>44.155844155844157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43418</v>
       </c>
@@ -1566,10 +1619,10 @@
         <v>47</v>
       </c>
       <c r="D84">
-        <v>42.34234234234234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>42.342342342342342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43419</v>
       </c>
@@ -1580,10 +1633,10 @@
         <v>41</v>
       </c>
       <c r="D85">
-        <v>36.93693693693694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>36.936936936936938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43420</v>
       </c>
@@ -1597,7 +1650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43421</v>
       </c>
@@ -1608,10 +1661,10 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>42.10526315789473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>42.105263157894733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43423</v>
       </c>
@@ -1625,7 +1678,7 @@
         <v>22.76422764227642</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43424</v>
       </c>
@@ -1639,7 +1692,7 @@
         <v>26.36363636363636</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43425</v>
       </c>
@@ -1650,10 +1703,10 @@
         <v>26</v>
       </c>
       <c r="D90">
-        <v>22.80701754385965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>22.807017543859651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43426</v>
       </c>
@@ -1667,7 +1720,7 @@
         <v>29.09090909090909</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43427</v>
       </c>
@@ -1681,7 +1734,7 @@
         <v>27.38853503184713</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43428</v>
       </c>
@@ -1692,10 +1745,10 @@
         <v>15</v>
       </c>
       <c r="D93">
-        <v>33.33333333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43430</v>
       </c>
@@ -1709,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43431</v>
       </c>
@@ -1723,7 +1776,7 @@
         <v>23.95209580838323</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43432</v>
       </c>
@@ -1734,10 +1787,10 @@
         <v>40</v>
       </c>
       <c r="D96">
-        <v>44.9438202247191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>44.943820224719097</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43433</v>
       </c>
@@ -1751,7 +1804,7 @@
         <v>40.74074074074074</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43434</v>
       </c>
@@ -1762,10 +1815,10 @@
         <v>42</v>
       </c>
       <c r="D98">
-        <v>38.18181818181819</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>38.181818181818187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43435</v>
       </c>
@@ -1779,7 +1832,7 @@
         <v>10.3448275862069</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43437</v>
       </c>
@@ -1793,7 +1846,7 @@
         <v>29.26829268292683</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43438</v>
       </c>
@@ -1804,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="D101">
-        <v>35.23809523809524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>35.238095238095241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43439</v>
       </c>
@@ -1818,10 +1871,10 @@
         <v>14</v>
       </c>
       <c r="D102">
-        <v>16.27906976744186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43440</v>
       </c>
@@ -1832,10 +1885,10 @@
         <v>37</v>
       </c>
       <c r="D103">
-        <v>33.94495412844037</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>33.944954128440372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43441</v>
       </c>
@@ -1846,10 +1899,10 @@
         <v>32</v>
       </c>
       <c r="D104">
-        <v>31.06796116504854</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>31.067961165048541</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43442</v>
       </c>
@@ -1860,10 +1913,10 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>17.24137931034483</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>17.241379310344829</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43444</v>
       </c>
@@ -1874,10 +1927,10 @@
         <v>24</v>
       </c>
       <c r="D106">
-        <v>20.51282051282051</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>20.512820512820511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43445</v>
       </c>
@@ -1888,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="D107">
-        <v>22.05882352941176</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>22.058823529411761</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43446</v>
       </c>
@@ -1905,7 +1958,7 @@
         <v>24.61538461538462</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43447</v>
       </c>
@@ -1919,7 +1972,7 @@
         <v>22.29299363057325</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43448</v>
       </c>
@@ -1933,7 +1986,7 @@
         <v>19.44444444444445</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43449</v>
       </c>
@@ -1944,10 +1997,10 @@
         <v>15</v>
       </c>
       <c r="D111">
-        <v>36.58536585365854</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>36.585365853658537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43451</v>
       </c>
@@ -1961,7 +2014,7 @@
         <v>21.53846153846154</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43452</v>
       </c>
@@ -1975,7 +2028,7 @@
         <v>19.1358024691358</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43453</v>
       </c>
@@ -1986,10 +2039,10 @@
         <v>35</v>
       </c>
       <c r="D114">
-        <v>14.52282157676349</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>14.522821576763491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43454</v>
       </c>
@@ -2000,10 +2053,10 @@
         <v>40</v>
       </c>
       <c r="D115">
-        <v>19.32367149758454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>19.323671497584542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43455</v>
       </c>
@@ -2014,10 +2067,10 @@
         <v>32</v>
       </c>
       <c r="D116">
-        <v>15.92039800995025</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>15.920398009950249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43456</v>
       </c>
@@ -2028,10 +2081,10 @@
         <v>16</v>
       </c>
       <c r="D117">
-        <v>15.23809523809524</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>15.238095238095241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43458</v>
       </c>
@@ -2042,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>3.643724696356275</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>3.6437246963562751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43461</v>
       </c>
@@ -2056,10 +2109,10 @@
         <v>16</v>
       </c>
       <c r="D119">
-        <v>9.696969696969697</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>9.6969696969696972</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43462</v>
       </c>
@@ -2070,10 +2123,10 @@
         <v>25</v>
       </c>
       <c r="D120">
-        <v>14.70588235294118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>14.705882352941179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43463</v>
       </c>
@@ -2084,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>14.70588235294118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>14.705882352941179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43465</v>
       </c>
@@ -2098,10 +2151,10 @@
         <v>16</v>
       </c>
       <c r="D122">
-        <v>7.804878048780488</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>7.8048780487804876</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43467</v>
       </c>
@@ -2112,10 +2165,10 @@
         <v>22</v>
       </c>
       <c r="D123">
-        <v>18.4873949579832</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>18.487394957983199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43468</v>
       </c>
@@ -2129,7 +2182,7 @@
         <v>16.57458563535911</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43469</v>
       </c>
@@ -2140,10 +2193,10 @@
         <v>62</v>
       </c>
       <c r="D125">
-        <v>32.29166666666667</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>32.291666666666671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43470</v>
       </c>
@@ -2157,7 +2210,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43472</v>
       </c>
@@ -2168,10 +2221,10 @@
         <v>45</v>
       </c>
       <c r="D127">
-        <v>25.86206896551724</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>25.862068965517238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43473</v>
       </c>
@@ -2182,10 +2235,10 @@
         <v>55</v>
       </c>
       <c r="D128">
-        <v>33.74233128834356</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>33.742331288343557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43474</v>
       </c>
@@ -2196,10 +2249,10 @@
         <v>79</v>
       </c>
       <c r="D129">
-        <v>37.08920187793427</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>37.089201877934272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43475</v>
       </c>
@@ -2213,7 +2266,7 @@
         <v>27.1356783919598</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43476</v>
       </c>
@@ -2224,10 +2277,10 @@
         <v>38</v>
       </c>
       <c r="D131">
-        <v>17.59259259259259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>17.592592592592592</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43477</v>
       </c>
@@ -2238,10 +2291,10 @@
         <v>26</v>
       </c>
       <c r="D132">
-        <v>35.13513513513514</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>35.135135135135137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43479</v>
       </c>
@@ -2252,10 +2305,10 @@
         <v>42</v>
       </c>
       <c r="D133">
-        <v>28.18791946308725</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>28.187919463087251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43480</v>
       </c>
@@ -2266,10 +2319,10 @@
         <v>51</v>
       </c>
       <c r="D134">
-        <v>25.75757575757576</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>25.757575757575761</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43481</v>
       </c>
@@ -2280,10 +2333,10 @@
         <v>65</v>
       </c>
       <c r="D135">
-        <v>31.70731707317073</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>31.707317073170731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43482</v>
       </c>
@@ -2294,10 +2347,10 @@
         <v>91</v>
       </c>
       <c r="D136">
-        <v>43.12796208530806</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>43.127962085308063</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43483</v>
       </c>
@@ -2308,10 +2361,10 @@
         <v>137</v>
       </c>
       <c r="D137">
-        <v>66.50485436893204</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>66.504854368932044</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43484</v>
       </c>
@@ -2322,10 +2375,10 @@
         <v>43</v>
       </c>
       <c r="D138">
-        <v>45.74468085106383</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>45.744680851063833</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43486</v>
       </c>
@@ -2336,10 +2389,10 @@
         <v>48</v>
       </c>
       <c r="D139">
-        <v>39.34426229508197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>39.344262295081968</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43487</v>
       </c>
@@ -2350,10 +2403,10 @@
         <v>64</v>
       </c>
       <c r="D140">
-        <v>33.16062176165804</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>33.160621761658042</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43488</v>
       </c>
@@ -2364,10 +2417,10 @@
         <v>70</v>
       </c>
       <c r="D141">
-        <v>47.61904761904761</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>47.619047619047613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43489</v>
       </c>
@@ -2378,10 +2431,10 @@
         <v>97</v>
       </c>
       <c r="D142">
-        <v>58.43373493975904</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>58.433734939759042</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43490</v>
       </c>
@@ -2392,10 +2445,10 @@
         <v>112</v>
       </c>
       <c r="D143">
-        <v>69.1358024691358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>69.135802469135797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43491</v>
       </c>
@@ -2409,7 +2462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43493</v>
       </c>
@@ -2423,7 +2476,7 @@
         <v>48.9051094890511</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43494</v>
       </c>
@@ -2434,10 +2487,10 @@
         <v>103</v>
       </c>
       <c r="D146">
-        <v>63.58024691358025</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>63.580246913580247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43495</v>
       </c>
@@ -2448,10 +2501,10 @@
         <v>88</v>
       </c>
       <c r="D147">
-        <v>64.70588235294117</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>64.705882352941174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43496</v>
       </c>
@@ -2462,10 +2515,10 @@
         <v>101</v>
       </c>
       <c r="D148">
-        <v>77.09923664122137</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>77.099236641221367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43497</v>
       </c>
@@ -2476,10 +2529,10 @@
         <v>83</v>
       </c>
       <c r="D149">
-        <v>69.74789915966386</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>69.747899159663859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43498</v>
       </c>
@@ -2493,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43500</v>
       </c>
@@ -2504,10 +2557,10 @@
         <v>41</v>
       </c>
       <c r="D151">
-        <v>34.16666666666666</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>34.166666666666657</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43501</v>
       </c>
@@ -2518,10 +2571,10 @@
         <v>65</v>
       </c>
       <c r="D152">
-        <v>45.77464788732394</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>45.774647887323937</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43502</v>
       </c>
@@ -2532,10 +2585,10 @@
         <v>43</v>
       </c>
       <c r="D153">
-        <v>38.39285714285715</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>38.392857142857153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43503</v>
       </c>
@@ -2549,7 +2602,7 @@
         <v>46.92307692307692</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43504</v>
       </c>
@@ -2560,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="D155">
-        <v>39.78494623655914</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>39.784946236559144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43505</v>
       </c>
@@ -2574,10 +2627,10 @@
         <v>13</v>
       </c>
       <c r="D156">
-        <v>21.66666666666667</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>21.666666666666671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43507</v>
       </c>
@@ -2588,10 +2641,10 @@
         <v>37</v>
       </c>
       <c r="D157">
-        <v>30.08130081300813</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>30.081300813008131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43508</v>
       </c>
@@ -2605,7 +2658,7 @@
         <v>38.94736842105263</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43509</v>
       </c>
@@ -2616,10 +2669,10 @@
         <v>37</v>
       </c>
       <c r="D159">
-        <v>37.37373737373738</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>37.373737373737377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43510</v>
       </c>
@@ -2633,7 +2686,7 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43511</v>
       </c>
@@ -2644,10 +2697,10 @@
         <v>39</v>
       </c>
       <c r="D161">
-        <v>44.82758620689656</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>44.827586206896562</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43512</v>
       </c>
@@ -2658,10 +2711,10 @@
         <v>9</v>
       </c>
       <c r="D162">
-        <v>18.36734693877551</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>18.367346938775508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43514</v>
       </c>
@@ -2675,7 +2728,7 @@
         <v>21.05263157894737</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43515</v>
       </c>
@@ -2689,7 +2742,7 @@
         <v>21.12676056338028</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43516</v>
       </c>
@@ -2700,10 +2753,10 @@
         <v>54</v>
       </c>
       <c r="D165">
-        <v>42.51968503937008</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>42.519685039370081</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43517</v>
       </c>
@@ -2717,7 +2770,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43518</v>
       </c>
@@ -2731,7 +2784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43519</v>
       </c>
@@ -2742,10 +2795,10 @@
         <v>20</v>
       </c>
       <c r="D168">
-        <v>35.08771929824561</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>35.087719298245609</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43521</v>
       </c>
@@ -2759,7 +2812,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43522</v>
       </c>
@@ -2770,10 +2823,10 @@
         <v>54</v>
       </c>
       <c r="D170">
-        <v>33.33333333333333</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43523</v>
       </c>
@@ -2784,10 +2837,10 @@
         <v>77</v>
       </c>
       <c r="D171">
-        <v>53.47222222222222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>53.472222222222221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43524</v>
       </c>
@@ -2798,10 +2851,10 @@
         <v>82</v>
       </c>
       <c r="D172">
-        <v>71.30434782608695</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>71.304347826086953</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43525</v>
       </c>
@@ -2815,7 +2868,7 @@
         <v>62.62626262626263</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43526</v>
       </c>
@@ -2826,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>14.70588235294118</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>14.705882352941179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43527</v>
       </c>
@@ -2843,7 +2896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43528</v>
       </c>
@@ -2854,10 +2907,10 @@
         <v>10</v>
       </c>
       <c r="D176">
-        <v>13.6986301369863</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>13.698630136986299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43529</v>
       </c>
@@ -2868,10 +2921,10 @@
         <v>14</v>
       </c>
       <c r="D177">
-        <v>13.72549019607843</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>13.725490196078431</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43530</v>
       </c>
@@ -2885,7 +2938,7 @@
         <v>14.01869158878505</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43531</v>
       </c>
@@ -2899,7 +2952,7 @@
         <v>22.95081967213115</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43532</v>
       </c>
@@ -2910,10 +2963,10 @@
         <v>22</v>
       </c>
       <c r="D180">
-        <v>30.55555555555556</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>30.555555555555561</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43533</v>
       </c>
@@ -2924,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="D181">
-        <v>19.04761904761905</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>19.047619047619051</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43535</v>
       </c>
@@ -2941,7 +2994,7 @@
         <v>10.37735849056604</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43536</v>
       </c>
@@ -2952,10 +3005,10 @@
         <v>21</v>
       </c>
       <c r="D183">
-        <v>14.8936170212766</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>14.893617021276601</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43537</v>
       </c>
@@ -2969,7 +3022,7 @@
         <v>26.05042016806723</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43538</v>
       </c>
@@ -2980,10 +3033,10 @@
         <v>35</v>
       </c>
       <c r="D185">
-        <v>35.35353535353536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>35.353535353535356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43539</v>
       </c>
@@ -2997,7 +3050,7 @@
         <v>20.65217391304348</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43540</v>
       </c>
@@ -3011,7 +3064,7 @@
         <v>10.52631578947368</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43542</v>
       </c>
@@ -3025,7 +3078,7 @@
         <v>21.15384615384615</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43543</v>
       </c>
@@ -3036,10 +3089,10 @@
         <v>18</v>
       </c>
       <c r="D189">
-        <v>15.92920353982301</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>15.929203539823011</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43544</v>
       </c>
@@ -3053,7 +3106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43545</v>
       </c>
@@ -3067,7 +3120,7 @@
         <v>15.24390243902439</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43546</v>
       </c>
@@ -3078,10 +3131,10 @@
         <v>57</v>
       </c>
       <c r="D192">
-        <v>35.84905660377358</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>35.849056603773583</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43547</v>
       </c>
@@ -3092,10 +3145,10 @@
         <v>27</v>
       </c>
       <c r="D193">
-        <v>36.98630136986301</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>36.986301369863007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43549</v>
       </c>
@@ -3109,7 +3162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43550</v>
       </c>
@@ -3120,10 +3173,10 @@
         <v>47</v>
       </c>
       <c r="D195">
-        <v>41.96428571428572</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>41.964285714285722</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43551</v>
       </c>
@@ -3134,10 +3187,10 @@
         <v>77</v>
       </c>
       <c r="D196">
-        <v>53.84615384615385</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>53.846153846153847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43552</v>
       </c>
@@ -3148,10 +3201,10 @@
         <v>70</v>
       </c>
       <c r="D197">
-        <v>61.40350877192983</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>61.403508771929829</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43553</v>
       </c>
@@ -3162,10 +3215,10 @@
         <v>50</v>
       </c>
       <c r="D198">
-        <v>59.52380952380953</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>59.523809523809533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43554</v>
       </c>
@@ -3176,10 +3229,10 @@
         <v>27</v>
       </c>
       <c r="D199">
-        <v>43.54838709677419</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>43.548387096774192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43556</v>
       </c>
@@ -3190,10 +3243,10 @@
         <v>20</v>
       </c>
       <c r="D200">
-        <v>33.89830508474576</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>33.898305084745758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43557</v>
       </c>
@@ -3207,7 +3260,7 @@
         <v>31.81818181818182</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43558</v>
       </c>
@@ -3218,10 +3271,10 @@
         <v>26</v>
       </c>
       <c r="D202">
-        <v>27.36842105263158</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>27.368421052631579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43559</v>
       </c>
@@ -3232,10 +3285,10 @@
         <v>35</v>
       </c>
       <c r="D203">
-        <v>37.23404255319149</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>37.234042553191493</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43560</v>
       </c>
@@ -3249,7 +3302,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43561</v>
       </c>
@@ -3260,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="D205">
-        <v>13.79310344827586</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>13.793103448275859</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43563</v>
       </c>
@@ -3274,10 +3327,10 @@
         <v>59</v>
       </c>
       <c r="D206">
-        <v>74.68354430379746</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>74.683544303797461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43564</v>
       </c>
@@ -3288,10 +3341,10 @@
         <v>74</v>
       </c>
       <c r="D207">
-        <v>68.51851851851852</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>68.518518518518519</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43565</v>
       </c>
@@ -3305,7 +3358,7 @@
         <v>56.88073394495413</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43566</v>
       </c>
@@ -3316,10 +3369,10 @@
         <v>45</v>
       </c>
       <c r="D209">
-        <v>52.94117647058824</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>52.941176470588239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43567</v>
       </c>
@@ -3330,10 +3383,10 @@
         <v>56</v>
       </c>
       <c r="D210">
-        <v>57.14285714285714</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43568</v>
       </c>
@@ -3344,10 +3397,10 @@
         <v>16</v>
       </c>
       <c r="D211">
-        <v>34.04255319148936</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>34.042553191489361</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43570</v>
       </c>
@@ -3358,10 +3411,10 @@
         <v>14</v>
       </c>
       <c r="D212">
-        <v>23.33333333333333</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>23.333333333333329</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43571</v>
       </c>
@@ -3372,10 +3425,10 @@
         <v>13</v>
       </c>
       <c r="D213">
-        <v>15.85365853658537</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>15.853658536585369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43572</v>
       </c>
@@ -3386,10 +3439,10 @@
         <v>36</v>
       </c>
       <c r="D214">
-        <v>33.64485981308411</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>33.644859813084111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43573</v>
       </c>
@@ -3400,10 +3453,10 @@
         <v>25</v>
       </c>
       <c r="D215">
-        <v>40.98360655737705</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>40.983606557377051</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43575</v>
       </c>
@@ -3417,7 +3470,7 @@
         <v>14.03508771929824</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43578</v>
       </c>
@@ -3431,7 +3484,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43579</v>
       </c>
@@ -3442,10 +3495,10 @@
         <v>10</v>
       </c>
       <c r="D218">
-        <v>11.62790697674419</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>11.627906976744191</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43580</v>
       </c>
